--- a/app/templates/report/pagosemitidos.xlsx
+++ b/app/templates/report/pagosemitidos.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01CB71D-68A4-43F9-9B80-2FB719AD142D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6357949A-35E1-46F5-B7DE-8D6AA911120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pagos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pagos!$A$2:$AD$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pagos!$A$2:$AF$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Pagos</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Pagado</t>
+  </si>
+  <si>
+    <t>Diferencia</t>
   </si>
 </sst>
 </file>
@@ -614,41 +620,41 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="9" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="55.85546875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="26.7109375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="55.85546875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13" style="9" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="38.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="55.88671875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="55.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -659,24 +665,32 @@
         <f>SUBTOTAL(9,I3:I99999)</f>
         <v>0</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="J1" s="12">
+        <f>SUBTOTAL(9,J3:J99999)</f>
+        <v>0</v>
+      </c>
+      <c r="K1" s="12">
+        <f>SUBTOTAL(9,K3:K99999)</f>
+        <v>0</v>
+      </c>
       <c r="L1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="W1" s="5" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="Y1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
     </row>
-    <row r="2" spans="1:30" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
@@ -700,78 +714,84 @@
       <c r="I2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="M2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="N2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="O2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="Q2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="R2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="V2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="W2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="Y2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="Z2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="AA2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="AB2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AC2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AD2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AE2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AF2" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="str">
-        <f>W3&amp;AA3</f>
+        <f>Y3&amp;AC3</f>
         <v/>
       </c>
       <c r="E3" s="7"/>
@@ -779,49 +799,54 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11">
+        <f>J3-I3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8" t="str">
-        <f>X3&amp;AB3</f>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8" t="str">
+        <f>Z3&amp;AD3</f>
         <v/>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="13" t="e">
-        <f>Y3+AC3</f>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="13" t="e">
+        <f>AA3+AE3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R3" s="13" t="e">
-        <f>Z3+AD3</f>
+      <c r="T3" s="13" t="e">
+        <f>AB3+AF3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="13" t="s">
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="AB3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="13" t="s">
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AF3" s="13" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AD2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:AF2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/app/templates/report/pagosemitidos.xlsx
+++ b/app/templates/report/pagosemitidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6357949A-35E1-46F5-B7DE-8D6AA911120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A7C830-FC9B-45EF-AC03-2C905B91E435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Pagos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pagos!$A$2:$AF$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pagos!$A$2:$AD$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Pagos</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>Email</t>
-  </si>
-  <si>
-    <t>Pagado</t>
-  </si>
-  <si>
-    <t>Diferencia</t>
   </si>
 </sst>
 </file>
@@ -620,7 +614,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,27 +628,27 @@
     <col min="6" max="6" width="34.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13" style="9" customWidth="1"/>
-    <col min="12" max="12" width="20.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="38.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="9" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="38.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="55.88671875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="26.6640625" style="2" customWidth="1"/>
     <col min="22" max="22" width="55.88671875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="55.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -665,32 +659,24 @@
         <f>SUBTOTAL(9,I3:I99999)</f>
         <v>0</v>
       </c>
-      <c r="J1" s="12">
-        <f>SUBTOTAL(9,J3:J99999)</f>
-        <v>0</v>
-      </c>
-      <c r="K1" s="12">
-        <f>SUBTOTAL(9,K3:K99999)</f>
-        <v>0</v>
-      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="Y1" s="5" t="s">
+      <c r="R1" s="4"/>
+      <c r="W1" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
     </row>
-    <row r="2" spans="1:32" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
@@ -714,84 +700,78 @@
       <c r="I2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>28</v>
+      <c r="J2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="Z2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y2" s="19" t="s">
+      <c r="AA2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="AB2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AC2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AD2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF2" s="20" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="str">
-        <f>Y3&amp;AC3</f>
+        <f>W3&amp;AA3</f>
         <v/>
       </c>
       <c r="E3" s="7"/>
@@ -799,54 +779,49 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11">
-        <f>J3-I3</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8" t="str">
+        <f>X3&amp;AB3</f>
+        <v/>
+      </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="8" t="str">
-        <f>Z3&amp;AD3</f>
-        <v/>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="13" t="e">
-        <f>AA3+AE3</f>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="13" t="e">
+        <f>Y3+AC3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T3" s="13" t="e">
-        <f>AB3+AF3</f>
+      <c r="R3" s="13" t="e">
+        <f>Z3+AD3</f>
         <v>#VALUE!</v>
       </c>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="13" t="s">
+      <c r="X3" s="8"/>
+      <c r="Y3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="Z3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="13" t="s">
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AD3" s="13" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AF2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:AD2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/app/templates/report/pagosemitidos.xlsx
+++ b/app/templates/report/pagosemitidos.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A7C830-FC9B-45EF-AC03-2C905B91E435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66C19A5-2502-4C1B-8904-52B15745936A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pagos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pagos!$A$2:$AD$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pagos!$A$2:$AG$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Pagos</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Aviso 1</t>
+  </si>
+  <si>
+    <t>Aviso 2</t>
+  </si>
+  <si>
+    <t>Aviso 3</t>
   </si>
 </sst>
 </file>
@@ -614,41 +623,42 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="9" customWidth="1"/>
-    <col min="10" max="10" width="20.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="38.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="55.88671875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="26.6640625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="55.88671875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="55.85546875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="26.7109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="55.85546875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -662,21 +672,21 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="W1" s="5" t="s">
+      <c r="U1" s="4"/>
+      <c r="Z1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
     </row>
-    <row r="2" spans="1:30" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
@@ -722,56 +732,65 @@
         <v>26</v>
       </c>
       <c r="Q2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="V2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="W2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="Z2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="AA2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="AB2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="AC2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AD2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AE2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AF2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AG2" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="str">
-        <f>W3&amp;AA3</f>
+        <f>Z3&amp;AD3</f>
         <v/>
       </c>
       <c r="E3" s="7"/>
@@ -786,42 +805,51 @@
       <c r="L3" s="10"/>
       <c r="M3" s="7"/>
       <c r="N3" s="8" t="str">
-        <f>X3&amp;AB3</f>
+        <f>AA3&amp;AE3</f>
         <v/>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
-      <c r="Q3" s="13" t="e">
-        <f>Y3+AC3</f>
+      <c r="Q3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="13" t="e">
+        <f>AB3+AF3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R3" s="13" t="e">
-        <f>Z3+AD3</f>
+      <c r="U3" s="13" t="e">
+        <f>AC3+AG3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="13" t="s">
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Z3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="8"/>
       <c r="AC3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG3" s="13" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AD2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:AG2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
